--- a/AccuPay/ImportTemplates/accupay-shiftschedule-template.xlsx
+++ b/AccuPay/ImportTemplates/accupay-shiftschedule-template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>AccuPay Shift Schedule Template</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>EmployeeRowId</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,15 +202,6 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -235,9 +229,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -250,6 +241,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -539,168 +540,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="6" spans="1:6" s="14" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" s="14" customFormat="1">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" s="11" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" s="14" customFormat="1">
-      <c r="A12" s="15" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="11" customFormat="1">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" s="11" customFormat="1">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" s="14" customFormat="1">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" s="11" customFormat="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="14" customFormat="1">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:6" s="11" customFormat="1">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -714,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -722,43 +723,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="18" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="17" customWidth="1"/>
-    <col min="9" max="1025" width="9.140625" style="21"/>
+    <col min="1" max="1" width="12.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="0" style="33" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
+      <c r="I1" s="33" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="r3UmekJ/tEefQpNGyA2c2Sv9tx3DXuRNE7j7A/7vBAVH/5iQN6QOpK7i+9axsbXXy9AYcxJEaNkT7ukVxpadbw==" saltValue="Vu9L45x3uQhZ8iKQCvtQ9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -774,159 +780,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+1)</f>
-        <v>45005</v>
-      </c>
-      <c r="C3" s="29">
+        <v>45012</v>
+      </c>
+      <c r="C3" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+5)</f>
-        <v>45009</v>
-      </c>
-      <c r="D3" s="30">
+        <v>45016</v>
+      </c>
+      <c r="D3" s="26">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="26">
         <v>0.5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+6)</f>
-        <v>45010</v>
-      </c>
-      <c r="D4" s="30">
+        <v>45017</v>
+      </c>
+      <c r="D4" s="26">
         <v>0.29166666666666702</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="26">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="26">
         <v>0.5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+8)</f>
-        <v>45012</v>
-      </c>
-      <c r="C5" s="29">
+        <v>45019</v>
+      </c>
+      <c r="C5" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+11)</f>
-        <v>45015</v>
-      </c>
-      <c r="D5" s="30">
+        <v>45022</v>
+      </c>
+      <c r="D5" s="26">
         <v>0.875</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <v>0.25</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+12)</f>
-        <v>45016</v>
-      </c>
-      <c r="H6" s="33" t="s">
+        <v>45023</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+13)</f>
-        <v>45017</v>
-      </c>
-      <c r="C7" s="29">
+        <v>45024</v>
+      </c>
+      <c r="C7" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+14)</f>
-        <v>45018</v>
-      </c>
-      <c r="D7" s="30">
+        <v>45025</v>
+      </c>
+      <c r="D7" s="26">
         <v>0.625</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="26">
         <v>0.70833333333333304</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="27">
         <v>1</v>
       </c>
     </row>

--- a/AccuPay/ImportTemplates/accupay-shiftschedule-template.xlsx
+++ b/AccuPay/ImportTemplates/accupay-shiftschedule-template.xlsx
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -241,6 +241,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,7 +252,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -548,31 +549,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="4"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="7" t="s">
@@ -718,20 +719,22 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="31" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" style="16" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="16" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="0" style="33" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="9" max="9" width="15.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -759,12 +762,12 @@
       <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r3UmekJ/tEefQpNGyA2c2Sv9tx3DXuRNE7j7A/7vBAVH/5iQN6QOpK7i+9axsbXXy9AYcxJEaNkT7ukVxpadbw==" saltValue="Vu9L45x3uQhZ8iKQCvtQ9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yFsnhkAp27suZtr99WKtysvRBwRcnv8PYiGIi7JUOCZc+iWVXnrjBbO6nVOQMhe7NEs/uagtKnaf1K7GZVJj9w==" saltValue="oSv4etJijTlsGAxZCXczug==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -791,16 +794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -834,11 +837,11 @@
       </c>
       <c r="B3" s="28">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+1)</f>
-        <v>45012</v>
+        <v>45033</v>
       </c>
       <c r="C3" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+5)</f>
-        <v>45016</v>
+        <v>45037</v>
       </c>
       <c r="D3" s="26">
         <v>0.33333333333333298</v>
@@ -859,7 +862,7 @@
       </c>
       <c r="B4" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+6)</f>
-        <v>45017</v>
+        <v>45038</v>
       </c>
       <c r="D4" s="26">
         <v>0.29166666666666702</v>
@@ -880,11 +883,11 @@
       </c>
       <c r="B5" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+8)</f>
-        <v>45019</v>
+        <v>45040</v>
       </c>
       <c r="C5" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+11)</f>
-        <v>45022</v>
+        <v>45043</v>
       </c>
       <c r="D5" s="26">
         <v>0.875</v>
@@ -905,7 +908,7 @@
       </c>
       <c r="B6" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+12)</f>
-        <v>45023</v>
+        <v>45044</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>28</v>
@@ -917,11 +920,11 @@
       </c>
       <c r="B7" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+13)</f>
-        <v>45024</v>
+        <v>45045</v>
       </c>
       <c r="C7" s="25">
         <f ca="1">TODAY()+(7-WEEKDAY(TODAY(),2)+14)</f>
-        <v>45025</v>
+        <v>45046</v>
       </c>
       <c r="D7" s="26">
         <v>0.625</v>
